--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/VACACIONES 2022  PERSONL.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/VACACIONES 2022  PERSONL.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t xml:space="preserve">3 enero al 8 enero </t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ortiz Caballero Marisol </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 enero al 14 enero </t>
   </si>
   <si>
     <t xml:space="preserve">Flores cantor María Luisa </t>
@@ -506,7 +503,7 @@
   <dimension ref="A3:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,12 +515,12 @@
   <sheetData>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -531,7 +528,7 @@
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>0</v>
@@ -542,7 +539,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.35">
@@ -555,18 +552,18 @@
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
@@ -575,19 +572,19 @@
     </row>
     <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.35">
@@ -597,27 +594,27 @@
     </row>
     <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="21" x14ac:dyDescent="0.35">
@@ -642,34 +639,34 @@
     </row>
     <row r="21" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="21" x14ac:dyDescent="0.35">
@@ -683,7 +680,7 @@
     <row r="27" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:3" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="5"/>
     </row>
